--- a/beta_version/excel_files/final_test.xlsx
+++ b/beta_version/excel_files/final_test.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,11 +498,107 @@
           <t>Mañana</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
           <t>0.01 minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>WV50 FILTER</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fallo atornillador</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12:57:22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Mañana</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-0.00 minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>WV50 FILTER</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cover atascasdo</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12:57:24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Mañana</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.01 minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>WC47 NACP</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12:59:26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Mañana</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.05 minutos</t>
         </is>
       </c>
     </row>

--- a/beta_version/excel_files/final_test.xlsx
+++ b/beta_version/excel_files/final_test.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,11 +594,331 @@
           <t>Mañana</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
           <t>0.05 minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>WV50 FILTER</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Traza</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10:40:31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Mañana</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-0.01 minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>WV50 FILTER</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pieza enganchada en HV Test</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10:40:36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Mañana</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.02 minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>WV50 FILTER</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fallo cámara QR</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10:40:39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Mañana</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0.02 minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>WV50 FILTER</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>No coloca bien la pcb</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10:40:42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Mañana</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0.02 minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>WV50 FILTER</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Repeat funcional</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10:45:26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Mañana</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-0.00 minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>WV50 FILTER</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Fallo cámara QR</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10:45:38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Mañana</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0.05 minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>WV50 FILTER</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Fallo cámara QR</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10:45:40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Mañana</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0.04 minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>WV50 FILTER</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Fallo atornillador</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10:47:25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Mañana</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-0.00 minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>WV50 FILTER</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Cover atascasdo</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10:47:56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Mañana</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.13 minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>WV50 FILTER</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Cover atascasdo</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10:48:29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Mañana</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0.18 minutos</t>
         </is>
       </c>
     </row>
